--- a/results/I3_N5_M2_T30_C100_DepCentral_s0_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2839.031183984788</v>
+        <v>1818.718352253817</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.57702921450956</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.867884439658271</v>
+        <v>7.908099007898997</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.192039209931101</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2232.700000000005</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.4300000000001</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>15.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.35124120223184</v>
+        <v>4.798343757406283</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.72863473297091</v>
+        <v>2.420950226667209</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.978580466864702</v>
+        <v>27.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0214195331353</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.14958495963812</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1059,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1073,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1087,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1185,13 +1141,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1199,13 +1155,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1213,13 +1169,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1227,15 +1183,29 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1338,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1349,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1360,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -1371,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -1404,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1415,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -1437,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -1448,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>152.405</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1459,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>141.345</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1470,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1481,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>141.435</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1492,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>260.92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1514,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>238.265</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1525,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>253.315</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1536,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>245.18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1547,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>253.23</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1558,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1569,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
@@ -1580,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -1591,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1602,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.6400000000006</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -1624,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.2250000000006</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
@@ -1635,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>173.3450000000006</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>178.0200000000006</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -1657,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>175.2100000000006</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
@@ -1668,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>260.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1679,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>238.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1690,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>253.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1701,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>245.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1712,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>253.23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.64000000000055</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -1770,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.22500000000056</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>73.3450000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1792,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>78.02000000000058</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1803,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>75.21000000000058</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1814,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>160.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1825,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>138.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1836,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>153.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1847,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>145.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>153.23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1916,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1927,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1938,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1949,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1960,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1971,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1982,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1993,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2004,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2015,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2026,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2037,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2048,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2059,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2070,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2081,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2092,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2103,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2114,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2125,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2136,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2158,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2221,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2232,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2243,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2254,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2265,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2276,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2287,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2298,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2309,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2320,7 +2290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2331,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2342,7 +2312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2353,7 +2323,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2364,7 +2334,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
